--- a/official_results/CNN_2_results.xlsx
+++ b/official_results/CNN_2_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,6 +1065,573 @@
         <v>64</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.982224694819813</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>lst, ndvi, altitude, slope, direction</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I11" t="n">
+        <v>128</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>76 of 300</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>13:49:16</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>242.87</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.930679580902395</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>lst, ndvi, altitude, slope, direction</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I12" t="n">
+        <v>128</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>93 of 300</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>13:54:01</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>282.44</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.804731716209544</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>lst, ndvi, altitude, slope, direction</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I13" t="n">
+        <v>128</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>79 of 300</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>13:58:02</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>237.59</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.058390447832953</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I14" t="n">
+        <v>64</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>11:26:48</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>1360.67</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4.854846912820642</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I15" t="n">
+        <v>64</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>11:49:16</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1346.01</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.911385955911055</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I16" t="n">
+        <v>64</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>12:11:26</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1328.55</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.849602487834011</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I17" t="n">
+        <v>128</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>12:25:49</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>860</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4.980593367544929</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I18" t="n">
+        <v>128</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>12:40:19</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>868.25</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.861497979876297</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>74 cells + augmented</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>stratified</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1487</v>
+      </c>
+      <c r="I19" t="n">
+        <v>128</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>300 of 300</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>12:54:52</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>871.36</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/official_results/CNN_2_results.xlsx
+++ b/official_results/CNN_2_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,6 +1038,281 @@
         <v>128</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4.853689923704732</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>122 of 300</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>15:27:13</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>266.2</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5.046942048850259</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>81 of 300</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>15:30:09</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>173.64</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5.590117639026925</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>62 of 300</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>15:32:23</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>131.78</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6.564788087185035</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>128</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>31 of 300</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>15:33:32</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.879508802284593</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>lst, ndvi, slope, altitude, direction, month, coords, discharge</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>128</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>92 of 300</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-12-29</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>15:36:57</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>203.32</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/official_results/CNN_2_results.xlsx
+++ b/official_results/CNN_2_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,6 +1313,281 @@
         <v>128</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.730903501678367</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>128</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>139 of 300</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>10:17:52</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>266.54</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.041600799506464</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>110 of 300</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>10:21:23</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>208.54</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4.970779655610904</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>123 of 300</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>10:25:16</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>231.33</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4.926217184525008</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>96 of 300</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10:28:19</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>181.77</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.968483486538083</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>784 images</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>130 of 300</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>10:32:23</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>242.7</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RMSE </t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
